--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_3_five_bus_meshed_grid_ynyn_pf_sc_results_branch.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_3_five_bus_meshed_grid_ynyn_pf_sc_results_branch.xlsx
@@ -80,10 +80,10 @@
     <t>pf_q_to_mvar</t>
   </si>
   <si>
-    <t>pf_ikss_from_deg</t>
+    <t>pf_ikss_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_to_deg</t>
+    <t>pf_ikss_to_degree</t>
   </si>
   <si>
     <t>pf_vm_from_pu</t>
@@ -92,10 +92,10 @@
     <t>pf_vm_to_pu</t>
   </si>
   <si>
-    <t>pf_va_from_deg</t>
+    <t>pf_va_from_degree</t>
   </si>
   <si>
-    <t>pf_va_to_deg</t>
+    <t>pf_va_to_degree</t>
   </si>
   <si>
     <t>Line_0</t>
@@ -164,76 +164,76 @@
     <t>pf_p_c_to_mw</t>
   </si>
   <si>
-    <t>pf_q_a_from_mw</t>
+    <t>pf_q_a_from_mvar</t>
   </si>
   <si>
-    <t>pf_q_b_from_mw</t>
+    <t>pf_q_b_from_mvar</t>
   </si>
   <si>
-    <t>pf_q_c_from_mw</t>
+    <t>pf_q_c_from_mvar</t>
   </si>
   <si>
-    <t>pf_q_a_to_mw</t>
+    <t>pf_q_a_to_mvar</t>
   </si>
   <si>
-    <t>pf_q_b_to_mw</t>
+    <t>pf_q_b_to_mvar</t>
   </si>
   <si>
-    <t>pf_q_c_to_mw</t>
+    <t>pf_q_c_to_mvar</t>
   </si>
   <si>
-    <t>pf_ikss_a_from_deg</t>
+    <t>pf_ikss_a_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_b_from_deg</t>
+    <t>pf_ikss_b_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_c_from_deg</t>
+    <t>pf_ikss_c_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_a_to_deg</t>
+    <t>pf_ikss_a_to_degree</t>
   </si>
   <si>
-    <t>pf_ikss_b_to_deg</t>
+    <t>pf_ikss_b_to_degree</t>
   </si>
   <si>
-    <t>pf_ikss_c_to_deg</t>
+    <t>pf_ikss_c_to_degree</t>
   </si>
   <si>
     <t>pf_vm_a_from_pu</t>
   </si>
   <si>
-    <t>pf_vm_b_from_bus_pu</t>
+    <t>pf_vm_b_from_pu</t>
   </si>
   <si>
-    <t>pf_vm_c_from_bus_pu</t>
+    <t>pf_vm_c_from_pu</t>
   </si>
   <si>
-    <t>pf_vm_a_to_bus_pu</t>
+    <t>pf_vm_a_to_pu</t>
   </si>
   <si>
-    <t>pf_vm_b_to_bus_pu</t>
+    <t>pf_vm_b_to_pu</t>
   </si>
   <si>
-    <t>pf_vm_c_to_bus_pu</t>
+    <t>pf_vm_c_to_pu</t>
   </si>
   <si>
-    <t>pf_va_a_from_bus_deg</t>
+    <t>pf_va_a_from_degree</t>
   </si>
   <si>
-    <t>pf_va_b_from_bus_deg</t>
+    <t>pf_va_b_from_degree</t>
   </si>
   <si>
-    <t>pf_va_c_from_bus_deg</t>
+    <t>pf_va_c_from_degree</t>
   </si>
   <si>
-    <t>pf_va_a_to_bus_deg</t>
+    <t>pf_va_a_to_degree</t>
   </si>
   <si>
-    <t>pf_va_b_to_bus_deg</t>
+    <t>pf_va_b_to_degree</t>
   </si>
   <si>
-    <t>pf_va_c_to_bus_deg</t>
+    <t>pf_va_c_to_degree</t>
   </si>
 </sst>
 </file>

--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_3_five_bus_meshed_grid_ynyn_pf_sc_results_branch.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_3_five_bus_meshed_grid_ynyn_pf_sc_results_branch.xlsx
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>87.32801736352478</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>73.5107010807436</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>73.5107010807436</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>73.5107010807436</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>73.5107010807436</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1119,22 +1119,22 @@
         <v>0.952627964804756</v>
       </c>
       <c r="AL2">
-        <v>-3.981164704985178E-12</v>
+        <v>7.363317617288727E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>179.9999999999793</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999999899</v>
+        <v>-179.9999999999858</v>
       </c>
       <c r="AO2">
-        <v>-1.243683065455747E-11</v>
+        <v>5.900008373821368E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>179.9999999999542</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999592</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1250,22 +1250,22 @@
         <v>0.952627964804756</v>
       </c>
       <c r="AL3">
-        <v>-1.426240347863938E-11</v>
+        <v>5.117418226480556E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>179.9999999999489</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999999792</v>
+        <v>-179.9999999999532</v>
       </c>
       <c r="AO3">
-        <v>-1.243683065455747E-11</v>
+        <v>5.900008373821368E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>179.9999999999542</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999592</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1381,22 +1381,22 @@
         <v>0.952627964804756</v>
       </c>
       <c r="AL4">
-        <v>-1.425857964979136E-11</v>
+        <v>5.001290862152971E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>179.9999999999489</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999999792</v>
+        <v>-179.9999999999532</v>
       </c>
       <c r="AO4">
-        <v>-1.243683065455747E-11</v>
+        <v>5.900008373821368E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>179.9999999999542</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999592</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1512,22 +1512,22 @@
         <v>0.9526279648057686</v>
       </c>
       <c r="AL5">
-        <v>-1.426240347863938E-11</v>
+        <v>5.117418226480556E-13</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>179.9999999999489</v>
       </c>
       <c r="AN5">
-        <v>-179.9999999999792</v>
+        <v>-179.9999999999532</v>
       </c>
       <c r="AO5">
-        <v>-1.425857964979136E-11</v>
+        <v>5.001290862152971E-13</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>179.9999999999489</v>
       </c>
       <c r="AQ5">
-        <v>-179.9999999999792</v>
+        <v>-179.9999999999532</v>
       </c>
     </row>
   </sheetData>
@@ -1787,22 +1787,22 @@
         <v>0.9229411060011535</v>
       </c>
       <c r="AL2">
-        <v>17.92198046293678</v>
+        <v>2.770009960775658E-13</v>
       </c>
       <c r="AM2">
-        <v>-106.5279586928746</v>
+        <v>-140.8543229646633</v>
       </c>
       <c r="AN2">
-        <v>158.1868465769574</v>
+        <v>122.4159013159208</v>
       </c>
       <c r="AO2">
-        <v>16.25665454943078</v>
+        <v>2.459507097340266E-13</v>
       </c>
       <c r="AP2">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204022</v>
       </c>
       <c r="AQ2">
-        <v>160.9543898286497</v>
+        <v>128.2389811279578</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1918,22 +1918,22 @@
         <v>0.9229411060011535</v>
       </c>
       <c r="AL3">
-        <v>15.27863230041748</v>
+        <v>2.27740294481188E-13</v>
       </c>
       <c r="AM3">
-        <v>-104.0410782188621</v>
+        <v>-144.2086535813753</v>
       </c>
       <c r="AN3">
-        <v>162.4426920027739</v>
+        <v>131.5664950534547</v>
       </c>
       <c r="AO3">
-        <v>16.25665454943078</v>
+        <v>2.459507097340266E-13</v>
       </c>
       <c r="AP3">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204022</v>
       </c>
       <c r="AQ3">
-        <v>160.9543898286497</v>
+        <v>128.2389811279578</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2049,22 +2049,22 @@
         <v>0.9229411060011535</v>
       </c>
       <c r="AL4">
-        <v>15.27863230041748</v>
+        <v>2.230234149279605E-13</v>
       </c>
       <c r="AM4">
-        <v>-104.0410782188621</v>
+        <v>-144.2086535813753</v>
       </c>
       <c r="AN4">
-        <v>162.4426920027739</v>
+        <v>131.5664950534547</v>
       </c>
       <c r="AO4">
-        <v>16.25665454943078</v>
+        <v>2.459507097340266E-13</v>
       </c>
       <c r="AP4">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204022</v>
       </c>
       <c r="AQ4">
-        <v>160.9543898286497</v>
+        <v>128.2389811279578</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -2180,22 +2180,22 @@
         <v>0.9259084304691396</v>
       </c>
       <c r="AL5">
-        <v>15.27863230041748</v>
+        <v>2.27740294481188E-13</v>
       </c>
       <c r="AM5">
-        <v>-104.0410782188621</v>
+        <v>-144.2086535813753</v>
       </c>
       <c r="AN5">
-        <v>162.4426920027739</v>
+        <v>131.5664950534547</v>
       </c>
       <c r="AO5">
-        <v>15.27863230041748</v>
+        <v>2.230234149279605E-13</v>
       </c>
       <c r="AP5">
-        <v>-104.0410782188621</v>
+        <v>-144.2086535813753</v>
       </c>
       <c r="AQ5">
-        <v>162.4426920027739</v>
+        <v>131.5664950534547</v>
       </c>
     </row>
   </sheetData>
@@ -2455,22 +2455,22 @@
         <v>0.9229411060011535</v>
       </c>
       <c r="AL2">
-        <v>17.92198046293678</v>
+        <v>2.770009960775658E-13</v>
       </c>
       <c r="AM2">
-        <v>-106.5279586928746</v>
+        <v>-140.8543229646633</v>
       </c>
       <c r="AN2">
-        <v>158.1868465769574</v>
+        <v>122.4159013159208</v>
       </c>
       <c r="AO2">
-        <v>16.25665454943078</v>
+        <v>2.459507097340266E-13</v>
       </c>
       <c r="AP2">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204022</v>
       </c>
       <c r="AQ2">
-        <v>160.9543898286497</v>
+        <v>128.2389811279578</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2586,22 +2586,22 @@
         <v>0.9229411060011535</v>
       </c>
       <c r="AL3">
-        <v>15.27863230041748</v>
+        <v>2.27740294481188E-13</v>
       </c>
       <c r="AM3">
-        <v>-104.0410782188621</v>
+        <v>-144.2086535813753</v>
       </c>
       <c r="AN3">
-        <v>162.4426920027739</v>
+        <v>131.5664950534547</v>
       </c>
       <c r="AO3">
-        <v>16.25665454943078</v>
+        <v>2.459507097340266E-13</v>
       </c>
       <c r="AP3">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204022</v>
       </c>
       <c r="AQ3">
-        <v>160.9543898286497</v>
+        <v>128.2389811279578</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2717,22 +2717,22 @@
         <v>0.9229411060011535</v>
       </c>
       <c r="AL4">
-        <v>15.27863230041748</v>
+        <v>2.230234149279605E-13</v>
       </c>
       <c r="AM4">
-        <v>-104.0410782188621</v>
+        <v>-144.2086535813753</v>
       </c>
       <c r="AN4">
-        <v>162.4426920027739</v>
+        <v>131.5664950534547</v>
       </c>
       <c r="AO4">
-        <v>16.25665454943078</v>
+        <v>2.459507097340266E-13</v>
       </c>
       <c r="AP4">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204022</v>
       </c>
       <c r="AQ4">
-        <v>160.9543898286497</v>
+        <v>128.2389811279578</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -2848,22 +2848,22 @@
         <v>0.9259084304691396</v>
       </c>
       <c r="AL5">
-        <v>15.27863230041748</v>
+        <v>2.27740294481188E-13</v>
       </c>
       <c r="AM5">
-        <v>-104.0410782188621</v>
+        <v>-144.2086535813753</v>
       </c>
       <c r="AN5">
-        <v>162.4426920027739</v>
+        <v>131.5664950534547</v>
       </c>
       <c r="AO5">
-        <v>15.27863230041748</v>
+        <v>2.230234149279605E-13</v>
       </c>
       <c r="AP5">
-        <v>-104.0410782188621</v>
+        <v>-144.2086535813753</v>
       </c>
       <c r="AQ5">
-        <v>162.4426920027739</v>
+        <v>131.5664950534547</v>
       </c>
     </row>
   </sheetData>
@@ -3123,22 +3123,22 @@
         <v>0.8660254037883337</v>
       </c>
       <c r="AL2">
-        <v>3.078247499844816E-11</v>
+        <v>7.617527557213436E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-179.9999999999019</v>
       </c>
       <c r="AN2">
-        <v>179.9999999999606</v>
+        <v>179.999999999895</v>
       </c>
       <c r="AO2">
-        <v>1.723596600315573E-10</v>
+        <v>5.965053817173471E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-179.9999999994768</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999998195</v>
+        <v>179.9999999994718</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3254,22 +3254,22 @@
         <v>0.8660254037883337</v>
       </c>
       <c r="AL3">
-        <v>1.924232255941614E-10</v>
+        <v>4.638620333420991E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-179.9999999994164</v>
       </c>
       <c r="AN3">
-        <v>179.9999999997996</v>
+        <v>179.9999999994125</v>
       </c>
       <c r="AO3">
-        <v>1.723596600315573E-10</v>
+        <v>5.965053817173471E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-179.9999999994768</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999998195</v>
+        <v>179.9999999994718</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3385,22 +3385,22 @@
         <v>0.8660254037883337</v>
       </c>
       <c r="AL4">
-        <v>1.9242374622865E-10</v>
+        <v>4.582818757120013E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-179.9999999994164</v>
       </c>
       <c r="AN4">
-        <v>179.9999999997996</v>
+        <v>179.9999999994125</v>
       </c>
       <c r="AO4">
-        <v>1.723596600315573E-10</v>
+        <v>5.965053817173471E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-179.9999999994768</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999998195</v>
+        <v>179.9999999994718</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -3516,22 +3516,22 @@
         <v>0.8660254037890385</v>
       </c>
       <c r="AL5">
-        <v>1.924232255941614E-10</v>
+        <v>4.638620333420991E-13</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>-179.9999999994164</v>
       </c>
       <c r="AN5">
-        <v>179.9999999997996</v>
+        <v>179.9999999994125</v>
       </c>
       <c r="AO5">
-        <v>1.9242374622865E-10</v>
+        <v>4.582818757120013E-13</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>-179.9999999994164</v>
       </c>
       <c r="AQ5">
-        <v>179.9999999997996</v>
+        <v>179.9999999994125</v>
       </c>
     </row>
   </sheetData>
@@ -3791,22 +3791,22 @@
         <v>0.8660254037883337</v>
       </c>
       <c r="AL2">
-        <v>3.078247499844816E-11</v>
+        <v>7.617527557213436E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-179.9999999999019</v>
       </c>
       <c r="AN2">
-        <v>179.9999999999606</v>
+        <v>179.999999999895</v>
       </c>
       <c r="AO2">
-        <v>1.723596600315573E-10</v>
+        <v>5.965053817173471E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-179.9999999994768</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999998195</v>
+        <v>179.9999999994718</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3922,22 +3922,22 @@
         <v>0.8660254037883337</v>
       </c>
       <c r="AL3">
-        <v>1.924232255941614E-10</v>
+        <v>4.638620333420991E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-179.9999999994164</v>
       </c>
       <c r="AN3">
-        <v>179.9999999997996</v>
+        <v>179.9999999994125</v>
       </c>
       <c r="AO3">
-        <v>1.723596600315573E-10</v>
+        <v>5.965053817173471E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-179.9999999994768</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999998195</v>
+        <v>179.9999999994718</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4053,22 +4053,22 @@
         <v>0.8660254037883337</v>
       </c>
       <c r="AL4">
-        <v>1.9242374622865E-10</v>
+        <v>4.582818757120013E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-179.9999999994164</v>
       </c>
       <c r="AN4">
-        <v>179.9999999997996</v>
+        <v>179.9999999994125</v>
       </c>
       <c r="AO4">
-        <v>1.723596600315573E-10</v>
+        <v>5.965053817173471E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-179.9999999994768</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999998195</v>
+        <v>179.9999999994718</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -4184,22 +4184,22 @@
         <v>0.8660254037890385</v>
       </c>
       <c r="AL5">
-        <v>1.924232255941614E-10</v>
+        <v>4.638620333420991E-13</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>-179.9999999994164</v>
       </c>
       <c r="AN5">
-        <v>179.9999999997996</v>
+        <v>179.9999999994125</v>
       </c>
       <c r="AO5">
-        <v>1.9242374622865E-10</v>
+        <v>4.582818757120013E-13</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>-179.9999999994164</v>
       </c>
       <c r="AQ5">
-        <v>179.9999999997996</v>
+        <v>179.9999999994125</v>
       </c>
     </row>
   </sheetData>
@@ -4459,22 +4459,22 @@
         <v>0.8529812840863311</v>
       </c>
       <c r="AL2">
-        <v>17.57011779536516</v>
+        <v>3.047011022873493E-13</v>
       </c>
       <c r="AM2">
-        <v>-106.9885815758096</v>
+        <v>-141.4823925534191</v>
       </c>
       <c r="AN2">
-        <v>158.5647675412735</v>
+        <v>122.8363393546083</v>
       </c>
       <c r="AO2">
-        <v>15.93288697155596</v>
+        <v>2.562034539551016E-13</v>
       </c>
       <c r="AP2">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979142</v>
       </c>
       <c r="AQ2">
-        <v>162.0554462537874</v>
+        <v>131.6989175372501</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4590,22 +4590,22 @@
         <v>0.8529812840863311</v>
       </c>
       <c r="AL3">
-        <v>14.83811452875887</v>
+        <v>2.295653396657057E-13</v>
       </c>
       <c r="AM3">
-        <v>-99.04485975339256</v>
+        <v>-143.7604788262512</v>
       </c>
       <c r="AN3">
-        <v>163.863451365583</v>
+        <v>136.2873245880947</v>
       </c>
       <c r="AO3">
-        <v>15.93288697155596</v>
+        <v>2.562034539551016E-13</v>
       </c>
       <c r="AP3">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979142</v>
       </c>
       <c r="AQ3">
-        <v>162.0554462537874</v>
+        <v>131.6989175372501</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4721,22 +4721,22 @@
         <v>0.8529812840863311</v>
       </c>
       <c r="AL4">
-        <v>14.83811452875887</v>
+        <v>2.27042596337655E-13</v>
       </c>
       <c r="AM4">
-        <v>-99.04485975339256</v>
+        <v>-143.7604788262512</v>
       </c>
       <c r="AN4">
-        <v>163.863451365583</v>
+        <v>136.2873245880947</v>
       </c>
       <c r="AO4">
-        <v>15.93288697155596</v>
+        <v>2.562034539551016E-13</v>
       </c>
       <c r="AP4">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979142</v>
       </c>
       <c r="AQ4">
-        <v>162.0554462537874</v>
+        <v>131.6989175372501</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -4852,22 +4852,22 @@
         <v>0.8618501377741069</v>
       </c>
       <c r="AL5">
-        <v>14.83811452875887</v>
+        <v>2.295653396657057E-13</v>
       </c>
       <c r="AM5">
-        <v>-99.04485975339256</v>
+        <v>-143.7604788262512</v>
       </c>
       <c r="AN5">
-        <v>163.863451365583</v>
+        <v>136.2873245880947</v>
       </c>
       <c r="AO5">
-        <v>14.83811452875887</v>
+        <v>2.27042596337655E-13</v>
       </c>
       <c r="AP5">
-        <v>-99.04485975339256</v>
+        <v>-143.7604788262512</v>
       </c>
       <c r="AQ5">
-        <v>163.863451365583</v>
+        <v>136.2873245880947</v>
       </c>
     </row>
   </sheetData>
@@ -5127,22 +5127,22 @@
         <v>0.8529812840863311</v>
       </c>
       <c r="AL2">
-        <v>17.57011779536516</v>
+        <v>3.047011022873493E-13</v>
       </c>
       <c r="AM2">
-        <v>-106.9885815758096</v>
+        <v>-141.4823925534191</v>
       </c>
       <c r="AN2">
-        <v>158.5647675412735</v>
+        <v>122.8363393546083</v>
       </c>
       <c r="AO2">
-        <v>15.93288697155596</v>
+        <v>2.562034539551016E-13</v>
       </c>
       <c r="AP2">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979142</v>
       </c>
       <c r="AQ2">
-        <v>162.0554462537874</v>
+        <v>131.6989175372501</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -5258,22 +5258,22 @@
         <v>0.8529812840863311</v>
       </c>
       <c r="AL3">
-        <v>14.83811452875887</v>
+        <v>2.295653396657057E-13</v>
       </c>
       <c r="AM3">
-        <v>-99.04485975339256</v>
+        <v>-143.7604788262512</v>
       </c>
       <c r="AN3">
-        <v>163.863451365583</v>
+        <v>136.2873245880947</v>
       </c>
       <c r="AO3">
-        <v>15.93288697155596</v>
+        <v>2.562034539551016E-13</v>
       </c>
       <c r="AP3">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979142</v>
       </c>
       <c r="AQ3">
-        <v>162.0554462537874</v>
+        <v>131.6989175372501</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -5389,22 +5389,22 @@
         <v>0.8529812840863311</v>
       </c>
       <c r="AL4">
-        <v>14.83811452875887</v>
+        <v>2.27042596337655E-13</v>
       </c>
       <c r="AM4">
-        <v>-99.04485975339256</v>
+        <v>-143.7604788262512</v>
       </c>
       <c r="AN4">
-        <v>163.863451365583</v>
+        <v>136.2873245880947</v>
       </c>
       <c r="AO4">
-        <v>15.93288697155596</v>
+        <v>2.562034539551016E-13</v>
       </c>
       <c r="AP4">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979142</v>
       </c>
       <c r="AQ4">
-        <v>162.0554462537874</v>
+        <v>131.6989175372501</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -5520,22 +5520,22 @@
         <v>0.8618501377741069</v>
       </c>
       <c r="AL5">
-        <v>14.83811452875887</v>
+        <v>2.295653396657057E-13</v>
       </c>
       <c r="AM5">
-        <v>-99.04485975339256</v>
+        <v>-143.7604788262512</v>
       </c>
       <c r="AN5">
-        <v>163.863451365583</v>
+        <v>136.2873245880947</v>
       </c>
       <c r="AO5">
-        <v>14.83811452875887</v>
+        <v>2.27042596337655E-13</v>
       </c>
       <c r="AP5">
-        <v>-99.04485975339256</v>
+        <v>-143.7604788262512</v>
       </c>
       <c r="AQ5">
-        <v>163.863451365583</v>
+        <v>136.2873245880947</v>
       </c>
     </row>
   </sheetData>
@@ -5795,22 +5795,22 @@
         <v>0.7584426162729176</v>
       </c>
       <c r="AL2">
-        <v>-0.02756566514285248</v>
+        <v>-0.02756566634468547</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>179.9724343335005</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-11.00281462486177</v>
+        <v>-11.00281462501534</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>168.9971853750447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -5926,22 +5926,22 @@
         <v>0.7584426162729176</v>
       </c>
       <c r="AL3">
-        <v>-8.424349188687852</v>
+        <v>-8.424349188780569</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>171.5756508112737</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-11.00281462486177</v>
+        <v>-11.00281462501534</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>168.9971853750447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -6057,22 +6057,22 @@
         <v>0.7584426162729176</v>
       </c>
       <c r="AL4">
-        <v>-8.424349188687842</v>
+        <v>-8.42434918878056</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>171.5756508112737</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>-11.00281462486177</v>
+        <v>-11.00281462501534</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>168.9971853750447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -6188,22 +6188,22 @@
         <v>0.8053397867791066</v>
       </c>
       <c r="AL5">
-        <v>-8.424349188687852</v>
+        <v>-8.424349188780569</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>171.5756508112737</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>-8.424349188687842</v>
+        <v>-8.42434918878056</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>171.5756508112737</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6463,22 +6463,22 @@
         <v>0.7584426162729176</v>
       </c>
       <c r="AL2">
-        <v>-0.02756566514285248</v>
+        <v>-0.02756566634468547</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>179.9724343335005</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-11.00281462486177</v>
+        <v>-11.00281462501534</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>168.9971853750447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -6594,22 +6594,22 @@
         <v>0.7584426162729176</v>
       </c>
       <c r="AL3">
-        <v>-8.424349188687852</v>
+        <v>-8.424349188780569</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>171.5756508112737</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-11.00281462486177</v>
+        <v>-11.00281462501534</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>168.9971853750447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -6725,22 +6725,22 @@
         <v>0.7584426162729176</v>
       </c>
       <c r="AL4">
-        <v>-8.424349188687842</v>
+        <v>-8.42434918878056</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>171.5756508112737</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>-11.00281462486177</v>
+        <v>-11.00281462501534</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>168.9971853750447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -6856,22 +6856,22 @@
         <v>0.8053397867791066</v>
       </c>
       <c r="AL5">
-        <v>-8.424349188687852</v>
+        <v>-8.424349188780569</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>171.5756508112737</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>-8.424349188687842</v>
+        <v>-8.42434918878056</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>171.5756508112737</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7131,22 +7131,22 @@
         <v>0.92652609797394</v>
       </c>
       <c r="AL2">
-        <v>21.51178856867009</v>
+        <v>-2.046450992721153</v>
       </c>
       <c r="AM2">
-        <v>-100.0510163395943</v>
+        <v>-131.3434407083918</v>
       </c>
       <c r="AN2">
-        <v>149.0210852516981</v>
+        <v>113.2771425498151</v>
       </c>
       <c r="AO2">
-        <v>20.15577503365077</v>
+        <v>-4.31939647973396</v>
       </c>
       <c r="AP2">
-        <v>-99.52967390013436</v>
+        <v>-124.6004939587554</v>
       </c>
       <c r="AQ2">
-        <v>151.3909791108389</v>
+        <v>109.8443386407414</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -7262,22 +7262,22 @@
         <v>0.92652609797394</v>
       </c>
       <c r="AL3">
-        <v>19.30229108876318</v>
+        <v>-4.72011224281832</v>
       </c>
       <c r="AM3">
-        <v>-99.226445685717</v>
+        <v>-121.6399841468528</v>
       </c>
       <c r="AN3">
-        <v>152.7371614114739</v>
+        <v>107.7770495067904</v>
       </c>
       <c r="AO3">
-        <v>20.15577503365077</v>
+        <v>-4.31939647973396</v>
       </c>
       <c r="AP3">
-        <v>-99.52967390013436</v>
+        <v>-124.6004939587554</v>
       </c>
       <c r="AQ3">
-        <v>151.3909791108389</v>
+        <v>109.8443386407414</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -7393,22 +7393,22 @@
         <v>0.92652609797394</v>
       </c>
       <c r="AL4">
-        <v>19.30229108876319</v>
+        <v>-4.720112242818319</v>
       </c>
       <c r="AM4">
-        <v>-99.22644568571701</v>
+        <v>-121.6399841468528</v>
       </c>
       <c r="AN4">
-        <v>152.7371614114739</v>
+        <v>107.7770495067904</v>
       </c>
       <c r="AO4">
-        <v>20.15577503365077</v>
+        <v>-4.31939647973396</v>
       </c>
       <c r="AP4">
-        <v>-99.52967390013436</v>
+        <v>-124.6004939587554</v>
       </c>
       <c r="AQ4">
-        <v>151.3909791108389</v>
+        <v>109.8443386407414</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -7524,22 +7524,22 @@
         <v>0.920830906394983</v>
       </c>
       <c r="AL5">
-        <v>19.30229108876318</v>
+        <v>-4.72011224281832</v>
       </c>
       <c r="AM5">
-        <v>-99.226445685717</v>
+        <v>-121.6399841468528</v>
       </c>
       <c r="AN5">
-        <v>152.7371614114739</v>
+        <v>107.7770495067904</v>
       </c>
       <c r="AO5">
-        <v>19.30229108876319</v>
+        <v>-4.720112242818319</v>
       </c>
       <c r="AP5">
-        <v>-99.22644568571701</v>
+        <v>-121.6399841468528</v>
       </c>
       <c r="AQ5">
-        <v>152.7371614114739</v>
+        <v>107.7770495067904</v>
       </c>
     </row>
   </sheetData>
@@ -7655,10 +7655,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>87.32801736352488</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>77.77984578051355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -7708,10 +7708,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>73.5107010807436</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>77.77984578051355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -7761,10 +7761,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>73.5107010807436</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>77.77984578051355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -7814,10 +7814,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>73.5107010807436</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>73.5107010807436</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8077,22 +8077,22 @@
         <v>0.92652609797394</v>
       </c>
       <c r="AL2">
-        <v>21.51178856867009</v>
+        <v>-2.046450992721153</v>
       </c>
       <c r="AM2">
-        <v>-100.0510163395943</v>
+        <v>-131.3434407083918</v>
       </c>
       <c r="AN2">
-        <v>149.0210852516981</v>
+        <v>113.2771425498151</v>
       </c>
       <c r="AO2">
-        <v>20.15577503365077</v>
+        <v>-4.31939647973396</v>
       </c>
       <c r="AP2">
-        <v>-99.52967390013436</v>
+        <v>-124.6004939587554</v>
       </c>
       <c r="AQ2">
-        <v>151.3909791108389</v>
+        <v>109.8443386407414</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -8208,22 +8208,22 @@
         <v>0.92652609797394</v>
       </c>
       <c r="AL3">
-        <v>19.30229108876318</v>
+        <v>-4.72011224281832</v>
       </c>
       <c r="AM3">
-        <v>-99.226445685717</v>
+        <v>-121.6399841468528</v>
       </c>
       <c r="AN3">
-        <v>152.7371614114739</v>
+        <v>107.7770495067904</v>
       </c>
       <c r="AO3">
-        <v>20.15577503365077</v>
+        <v>-4.31939647973396</v>
       </c>
       <c r="AP3">
-        <v>-99.52967390013436</v>
+        <v>-124.6004939587554</v>
       </c>
       <c r="AQ3">
-        <v>151.3909791108389</v>
+        <v>109.8443386407414</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -8339,22 +8339,22 @@
         <v>0.92652609797394</v>
       </c>
       <c r="AL4">
-        <v>19.30229108876319</v>
+        <v>-4.720112242818319</v>
       </c>
       <c r="AM4">
-        <v>-99.22644568571701</v>
+        <v>-121.6399841468528</v>
       </c>
       <c r="AN4">
-        <v>152.7371614114739</v>
+        <v>107.7770495067904</v>
       </c>
       <c r="AO4">
-        <v>20.15577503365077</v>
+        <v>-4.31939647973396</v>
       </c>
       <c r="AP4">
-        <v>-99.52967390013436</v>
+        <v>-124.6004939587554</v>
       </c>
       <c r="AQ4">
-        <v>151.3909791108389</v>
+        <v>109.8443386407414</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -8470,22 +8470,22 @@
         <v>0.920830906394983</v>
       </c>
       <c r="AL5">
-        <v>19.30229108876318</v>
+        <v>-4.72011224281832</v>
       </c>
       <c r="AM5">
-        <v>-99.226445685717</v>
+        <v>-121.6399841468528</v>
       </c>
       <c r="AN5">
-        <v>152.7371614114739</v>
+        <v>107.7770495067904</v>
       </c>
       <c r="AO5">
-        <v>19.30229108876319</v>
+        <v>-4.720112242818319</v>
       </c>
       <c r="AP5">
-        <v>-99.22644568571701</v>
+        <v>-121.6399841468528</v>
       </c>
       <c r="AQ5">
-        <v>152.7371614114739</v>
+        <v>107.7770495067904</v>
       </c>
     </row>
   </sheetData>
@@ -8745,22 +8745,22 @@
         <v>0.7571028330124503</v>
       </c>
       <c r="AL2">
-        <v>-0.07137942505300529</v>
+        <v>-0.07137942504074155</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>179.9286205741262</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-8.328724856354359</v>
+        <v>-8.328724856574624</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>171.6712751432005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -8876,22 +8876,22 @@
         <v>0.7571028330124503</v>
       </c>
       <c r="AL3">
-        <v>-5.84467795562561</v>
+        <v>-5.844677955857956</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>174.1553220439202</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-8.328724856354359</v>
+        <v>-8.328724856574624</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>171.6712751432005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -9007,22 +9007,22 @@
         <v>0.7571028330124503</v>
       </c>
       <c r="AL4">
-        <v>-5.844677955625632</v>
+        <v>-5.84467795585797</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>174.1553220439202</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>-8.328724856354359</v>
+        <v>-8.328724856574624</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>171.6712751432005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -9138,22 +9138,22 @@
         <v>0.7792462130277941</v>
       </c>
       <c r="AL5">
-        <v>-5.84467795562561</v>
+        <v>-5.844677955857956</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>174.1553220439202</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>-5.844677955625632</v>
+        <v>-5.84467795585797</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>174.1553220439202</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9413,22 +9413,22 @@
         <v>0.7571028330124503</v>
       </c>
       <c r="AL2">
-        <v>-0.07137942505300529</v>
+        <v>-0.07137942504074155</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>179.9286205741262</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-8.328724856354359</v>
+        <v>-8.328724856574624</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>171.6712751432005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -9544,22 +9544,22 @@
         <v>0.7571028330124503</v>
       </c>
       <c r="AL3">
-        <v>-5.84467795562561</v>
+        <v>-5.844677955857956</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>174.1553220439202</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-8.328724856354359</v>
+        <v>-8.328724856574624</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>171.6712751432005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -9675,22 +9675,22 @@
         <v>0.7571028330124503</v>
       </c>
       <c r="AL4">
-        <v>-5.844677955625632</v>
+        <v>-5.84467795585797</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>174.1553220439202</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>-8.328724856354359</v>
+        <v>-8.328724856574624</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>171.6712751432005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -9806,22 +9806,22 @@
         <v>0.7792462130277941</v>
       </c>
       <c r="AL5">
-        <v>-5.84467795562561</v>
+        <v>-5.844677955857956</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>174.1553220439202</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>-5.844677955625632</v>
+        <v>-5.84467795585797</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>174.1553220439202</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10081,22 +10081,22 @@
         <v>0.8514942418922238</v>
       </c>
       <c r="AL2">
-        <v>21.20506830981838</v>
+        <v>-2.070216751262667</v>
       </c>
       <c r="AM2">
-        <v>-100.4045966787053</v>
+        <v>-131.7369370215791</v>
       </c>
       <c r="AN2">
-        <v>149.0428370113121</v>
+        <v>112.9865734482403</v>
       </c>
       <c r="AO2">
-        <v>19.89479362818984</v>
+        <v>-5.57345681320353</v>
       </c>
       <c r="AP2">
-        <v>-97.63434507043141</v>
+        <v>-119.0250914089105</v>
       </c>
       <c r="AQ2">
-        <v>152.9232597311816</v>
+        <v>109.1425161682451</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -10212,22 +10212,22 @@
         <v>0.8514942418922238</v>
       </c>
       <c r="AL3">
-        <v>19.02649055485134</v>
+        <v>-5.490738926555318</v>
       </c>
       <c r="AM3">
-        <v>-96.09329345653539</v>
+        <v>-114.1657432085935</v>
       </c>
       <c r="AN3">
-        <v>154.901756168165</v>
+        <v>106.9184688468048</v>
       </c>
       <c r="AO3">
-        <v>19.89479362818984</v>
+        <v>-5.57345681320353</v>
       </c>
       <c r="AP3">
-        <v>-97.63434507043141</v>
+        <v>-119.0250914089105</v>
       </c>
       <c r="AQ3">
-        <v>152.9232597311816</v>
+        <v>109.1425161682451</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -10343,22 +10343,22 @@
         <v>0.8514942418922238</v>
       </c>
       <c r="AL4">
-        <v>19.02649055485133</v>
+        <v>-5.490738926555323</v>
       </c>
       <c r="AM4">
-        <v>-96.09329345653539</v>
+        <v>-114.1657432085935</v>
       </c>
       <c r="AN4">
-        <v>154.901756168165</v>
+        <v>106.9184688468048</v>
       </c>
       <c r="AO4">
-        <v>19.89479362818984</v>
+        <v>-5.57345681320353</v>
       </c>
       <c r="AP4">
-        <v>-97.63434507043141</v>
+        <v>-119.0250914089105</v>
       </c>
       <c r="AQ4">
-        <v>152.9232597311816</v>
+        <v>109.1425161682451</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -10474,22 +10474,22 @@
         <v>0.8519162036884854</v>
       </c>
       <c r="AL5">
-        <v>19.02649055485134</v>
+        <v>-5.490738926555318</v>
       </c>
       <c r="AM5">
-        <v>-96.09329345653539</v>
+        <v>-114.1657432085935</v>
       </c>
       <c r="AN5">
-        <v>154.901756168165</v>
+        <v>106.9184688468048</v>
       </c>
       <c r="AO5">
-        <v>19.02649055485133</v>
+        <v>-5.490738926555323</v>
       </c>
       <c r="AP5">
-        <v>-96.09329345653539</v>
+        <v>-114.1657432085935</v>
       </c>
       <c r="AQ5">
-        <v>154.901756168165</v>
+        <v>106.9184688468048</v>
       </c>
     </row>
   </sheetData>
@@ -10749,22 +10749,22 @@
         <v>0.8514942418922238</v>
       </c>
       <c r="AL2">
-        <v>21.20506830981838</v>
+        <v>-2.070216751262667</v>
       </c>
       <c r="AM2">
-        <v>-100.4045966787053</v>
+        <v>-131.7369370215791</v>
       </c>
       <c r="AN2">
-        <v>149.0428370113121</v>
+        <v>112.9865734482403</v>
       </c>
       <c r="AO2">
-        <v>19.89479362818984</v>
+        <v>-5.57345681320353</v>
       </c>
       <c r="AP2">
-        <v>-97.63434507043141</v>
+        <v>-119.0250914089105</v>
       </c>
       <c r="AQ2">
-        <v>152.9232597311816</v>
+        <v>109.1425161682451</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -10880,22 +10880,22 @@
         <v>0.8514942418922238</v>
       </c>
       <c r="AL3">
-        <v>19.02649055485134</v>
+        <v>-5.490738926555318</v>
       </c>
       <c r="AM3">
-        <v>-96.09329345653539</v>
+        <v>-114.1657432085935</v>
       </c>
       <c r="AN3">
-        <v>154.901756168165</v>
+        <v>106.9184688468048</v>
       </c>
       <c r="AO3">
-        <v>19.89479362818984</v>
+        <v>-5.57345681320353</v>
       </c>
       <c r="AP3">
-        <v>-97.63434507043141</v>
+        <v>-119.0250914089105</v>
       </c>
       <c r="AQ3">
-        <v>152.9232597311816</v>
+        <v>109.1425161682451</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -11011,22 +11011,22 @@
         <v>0.8514942418922238</v>
       </c>
       <c r="AL4">
-        <v>19.02649055485133</v>
+        <v>-5.490738926555323</v>
       </c>
       <c r="AM4">
-        <v>-96.09329345653539</v>
+        <v>-114.1657432085935</v>
       </c>
       <c r="AN4">
-        <v>154.901756168165</v>
+        <v>106.9184688468048</v>
       </c>
       <c r="AO4">
-        <v>19.89479362818984</v>
+        <v>-5.57345681320353</v>
       </c>
       <c r="AP4">
-        <v>-97.63434507043141</v>
+        <v>-119.0250914089105</v>
       </c>
       <c r="AQ4">
-        <v>152.9232597311816</v>
+        <v>109.1425161682451</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -11142,22 +11142,22 @@
         <v>0.8519162036884854</v>
       </c>
       <c r="AL5">
-        <v>19.02649055485134</v>
+        <v>-5.490738926555318</v>
       </c>
       <c r="AM5">
-        <v>-96.09329345653539</v>
+        <v>-114.1657432085935</v>
       </c>
       <c r="AN5">
-        <v>154.901756168165</v>
+        <v>106.9184688468048</v>
       </c>
       <c r="AO5">
-        <v>19.02649055485133</v>
+        <v>-5.490738926555323</v>
       </c>
       <c r="AP5">
-        <v>-96.09329345653539</v>
+        <v>-114.1657432085935</v>
       </c>
       <c r="AQ5">
-        <v>154.901756168165</v>
+        <v>106.9184688468048</v>
       </c>
     </row>
   </sheetData>
@@ -11417,22 +11417,22 @@
         <v>0.844773692729857</v>
       </c>
       <c r="AL2">
-        <v>74.32950827093296</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999598</v>
+        <v>-105.6704917292701</v>
       </c>
       <c r="AN2">
-        <v>105.6645177901049</v>
+        <v>105.6645177897215</v>
       </c>
       <c r="AO2">
-        <v>41.78823137284841</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999631</v>
+        <v>-138.2117686275452</v>
       </c>
       <c r="AQ2">
-        <v>117.9273743248247</v>
+        <v>117.9273743246285</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -11548,22 +11548,22 @@
         <v>0.844773692729857</v>
       </c>
       <c r="AL3">
-        <v>35.86071255927416</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999625</v>
+        <v>-144.1392874409827</v>
       </c>
       <c r="AN3">
-        <v>122.865418409526</v>
+        <v>122.865418409385</v>
       </c>
       <c r="AO3">
-        <v>41.78823137284841</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999631</v>
+        <v>-138.2117686275452</v>
       </c>
       <c r="AQ3">
-        <v>117.9273743248247</v>
+        <v>117.9273743246285</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -11679,22 +11679,22 @@
         <v>0.844773692729857</v>
       </c>
       <c r="AL4">
-        <v>35.86071255927414</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999625</v>
+        <v>-144.1392874409827</v>
       </c>
       <c r="AN4">
-        <v>122.865418409526</v>
+        <v>122.865418409385</v>
       </c>
       <c r="AO4">
-        <v>41.78823137284841</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999631</v>
+        <v>-138.2117686275452</v>
       </c>
       <c r="AQ4">
-        <v>117.9273743248247</v>
+        <v>117.9273743246285</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -11810,22 +11810,22 @@
         <v>0.8927074845834406</v>
       </c>
       <c r="AL5">
-        <v>35.86071255927416</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>-89.99999999999625</v>
+        <v>-144.1392874409827</v>
       </c>
       <c r="AN5">
-        <v>122.865418409526</v>
+        <v>122.865418409385</v>
       </c>
       <c r="AO5">
-        <v>35.86071255927414</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>-89.99999999999625</v>
+        <v>-144.1392874409827</v>
       </c>
       <c r="AQ5">
-        <v>122.865418409526</v>
+        <v>122.865418409385</v>
       </c>
     </row>
   </sheetData>
@@ -12085,22 +12085,22 @@
         <v>0.844773692729857</v>
       </c>
       <c r="AL2">
-        <v>74.32950827093296</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999598</v>
+        <v>-105.6704917292701</v>
       </c>
       <c r="AN2">
-        <v>105.6645177901049</v>
+        <v>105.6645177897215</v>
       </c>
       <c r="AO2">
-        <v>41.78823137284841</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999631</v>
+        <v>-138.2117686275452</v>
       </c>
       <c r="AQ2">
-        <v>117.9273743248247</v>
+        <v>117.9273743246285</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -12216,22 +12216,22 @@
         <v>0.844773692729857</v>
       </c>
       <c r="AL3">
-        <v>35.86071255927416</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999625</v>
+        <v>-144.1392874409827</v>
       </c>
       <c r="AN3">
-        <v>122.865418409526</v>
+        <v>122.865418409385</v>
       </c>
       <c r="AO3">
-        <v>41.78823137284841</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999631</v>
+        <v>-138.2117686275452</v>
       </c>
       <c r="AQ3">
-        <v>117.9273743248247</v>
+        <v>117.9273743246285</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -12347,22 +12347,22 @@
         <v>0.844773692729857</v>
       </c>
       <c r="AL4">
-        <v>35.86071255927414</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999625</v>
+        <v>-144.1392874409827</v>
       </c>
       <c r="AN4">
-        <v>122.865418409526</v>
+        <v>122.865418409385</v>
       </c>
       <c r="AO4">
-        <v>41.78823137284841</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999631</v>
+        <v>-138.2117686275452</v>
       </c>
       <c r="AQ4">
-        <v>117.9273743248247</v>
+        <v>117.9273743246285</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -12478,22 +12478,22 @@
         <v>0.8927074845834406</v>
       </c>
       <c r="AL5">
-        <v>35.86071255927416</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>-89.99999999999625</v>
+        <v>-144.1392874409827</v>
       </c>
       <c r="AN5">
-        <v>122.865418409526</v>
+        <v>122.865418409385</v>
       </c>
       <c r="AO5">
-        <v>35.86071255927414</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>-89.99999999999625</v>
+        <v>-144.1392874409827</v>
       </c>
       <c r="AQ5">
-        <v>122.865418409526</v>
+        <v>122.865418409385</v>
       </c>
     </row>
   </sheetData>
@@ -12753,22 +12753,22 @@
         <v>1.016210418329701</v>
       </c>
       <c r="AL2">
-        <v>29.26280869103021</v>
+        <v>-8.352156244200938</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999643</v>
+        <v>-118.5343561790645</v>
       </c>
       <c r="AN2">
-        <v>141.4081155808164</v>
+        <v>116.8450605627084</v>
       </c>
       <c r="AO2">
-        <v>30.2746771388187</v>
+        <v>-4.141779177123103</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999636</v>
+        <v>-125.4700065480362</v>
       </c>
       <c r="AQ2">
-        <v>141.074562026826</v>
+        <v>120.0851608524549</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -12884,22 +12884,22 @@
         <v>1.016210418329701</v>
       </c>
       <c r="AL3">
-        <v>30.74556405508114</v>
+        <v>-2.03549025654521</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999632</v>
+        <v>-128.8192744497263</v>
       </c>
       <c r="AN3">
-        <v>140.8404969738619</v>
+        <v>121.7636918966218</v>
       </c>
       <c r="AO3">
-        <v>30.2746771388187</v>
+        <v>-4.141779177123103</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999636</v>
+        <v>-125.4700065480362</v>
       </c>
       <c r="AQ3">
-        <v>141.074562026826</v>
+        <v>120.0851608524549</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -13015,22 +13015,22 @@
         <v>1.016210418329701</v>
       </c>
       <c r="AL4">
-        <v>30.74556405508114</v>
+        <v>-2.035490256545219</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999632</v>
+        <v>-128.8192744497263</v>
       </c>
       <c r="AN4">
-        <v>140.8404969738619</v>
+        <v>121.7636918966218</v>
       </c>
       <c r="AO4">
-        <v>30.2746771388187</v>
+        <v>-4.141779177123103</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999636</v>
+        <v>-125.4700065480362</v>
       </c>
       <c r="AQ4">
-        <v>141.074562026826</v>
+        <v>120.0851608524549</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -13146,22 +13146,22 @@
         <v>1.006672142415852</v>
       </c>
       <c r="AL5">
-        <v>30.74556405508114</v>
+        <v>-2.03549025654521</v>
       </c>
       <c r="AM5">
-        <v>-89.99999999999632</v>
+        <v>-128.8192744497263</v>
       </c>
       <c r="AN5">
-        <v>140.8404969738619</v>
+        <v>121.7636918966218</v>
       </c>
       <c r="AO5">
-        <v>30.74556405508114</v>
+        <v>-2.035490256545219</v>
       </c>
       <c r="AP5">
-        <v>-89.99999999999632</v>
+        <v>-128.8192744497263</v>
       </c>
       <c r="AQ5">
-        <v>140.8404969738619</v>
+        <v>121.7636918966218</v>
       </c>
     </row>
   </sheetData>
@@ -13421,22 +13421,22 @@
         <v>1.016210418329701</v>
       </c>
       <c r="AL2">
-        <v>29.26280869103021</v>
+        <v>-8.352156244200938</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999643</v>
+        <v>-118.5343561790645</v>
       </c>
       <c r="AN2">
-        <v>141.4081155808164</v>
+        <v>116.8450605627084</v>
       </c>
       <c r="AO2">
-        <v>30.2746771388187</v>
+        <v>-4.141779177123103</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999636</v>
+        <v>-125.4700065480362</v>
       </c>
       <c r="AQ2">
-        <v>141.074562026826</v>
+        <v>120.0851608524549</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -13552,22 +13552,22 @@
         <v>1.016210418329701</v>
       </c>
       <c r="AL3">
-        <v>30.74556405508114</v>
+        <v>-2.03549025654521</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999632</v>
+        <v>-128.8192744497263</v>
       </c>
       <c r="AN3">
-        <v>140.8404969738619</v>
+        <v>121.7636918966218</v>
       </c>
       <c r="AO3">
-        <v>30.2746771388187</v>
+        <v>-4.141779177123103</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999636</v>
+        <v>-125.4700065480362</v>
       </c>
       <c r="AQ3">
-        <v>141.074562026826</v>
+        <v>120.0851608524549</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -13683,22 +13683,22 @@
         <v>1.016210418329701</v>
       </c>
       <c r="AL4">
-        <v>30.74556405508114</v>
+        <v>-2.035490256545219</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999632</v>
+        <v>-128.8192744497263</v>
       </c>
       <c r="AN4">
-        <v>140.8404969738619</v>
+        <v>121.7636918966218</v>
       </c>
       <c r="AO4">
-        <v>30.2746771388187</v>
+        <v>-4.141779177123103</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999636</v>
+        <v>-125.4700065480362</v>
       </c>
       <c r="AQ4">
-        <v>141.074562026826</v>
+        <v>120.0851608524549</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -13814,22 +13814,22 @@
         <v>1.006672142415852</v>
       </c>
       <c r="AL5">
-        <v>30.74556405508114</v>
+        <v>-2.03549025654521</v>
       </c>
       <c r="AM5">
-        <v>-89.99999999999632</v>
+        <v>-128.8192744497263</v>
       </c>
       <c r="AN5">
-        <v>140.8404969738619</v>
+        <v>121.7636918966218</v>
       </c>
       <c r="AO5">
-        <v>30.74556405508114</v>
+        <v>-2.035490256545219</v>
       </c>
       <c r="AP5">
-        <v>-89.99999999999632</v>
+        <v>-128.8192744497263</v>
       </c>
       <c r="AQ5">
-        <v>140.8404969738619</v>
+        <v>121.7636918966218</v>
       </c>
     </row>
   </sheetData>
@@ -14089,22 +14089,22 @@
         <v>0.8530446727841295</v>
       </c>
       <c r="AL2">
-        <v>73.95517106948729</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999599</v>
+        <v>-106.0448289300387</v>
       </c>
       <c r="AN2">
-        <v>106.028510192134</v>
+        <v>106.0285101917882</v>
       </c>
       <c r="AO2">
-        <v>31.54263638696132</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999629</v>
+        <v>-148.457363612915</v>
       </c>
       <c r="AQ2">
-        <v>124.0142189298934</v>
+        <v>124.0142189298519</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -14220,22 +14220,22 @@
         <v>0.8530446727841295</v>
       </c>
       <c r="AL3">
-        <v>30.3746914538796</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999616</v>
+        <v>-149.6253085460567</v>
       </c>
       <c r="AN3">
-        <v>129.279728539824</v>
+        <v>129.2797285398058</v>
       </c>
       <c r="AO3">
-        <v>31.54263638696132</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999629</v>
+        <v>-148.457363612915</v>
       </c>
       <c r="AQ3">
-        <v>124.0142189298934</v>
+        <v>124.0142189298519</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -14351,22 +14351,22 @@
         <v>0.8530446727841295</v>
       </c>
       <c r="AL4">
-        <v>30.37469145387961</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999615</v>
+        <v>-149.6253085460566</v>
       </c>
       <c r="AN4">
-        <v>129.279728539824</v>
+        <v>129.2797285398058</v>
       </c>
       <c r="AO4">
-        <v>31.54263638696132</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999629</v>
+        <v>-148.457363612915</v>
       </c>
       <c r="AQ4">
-        <v>124.0142189298934</v>
+        <v>124.0142189298519</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -14482,22 +14482,22 @@
         <v>0.8732631958338906</v>
       </c>
       <c r="AL5">
-        <v>30.3746914538796</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>-89.99999999999616</v>
+        <v>-149.6253085460567</v>
       </c>
       <c r="AN5">
-        <v>129.279728539824</v>
+        <v>129.2797285398058</v>
       </c>
       <c r="AO5">
-        <v>30.37469145387961</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>-89.99999999999615</v>
+        <v>-149.6253085460566</v>
       </c>
       <c r="AQ5">
-        <v>129.279728539824</v>
+        <v>129.2797285398058</v>
       </c>
     </row>
   </sheetData>
@@ -14613,10 +14613,10 @@
         <v>0.8020156209364412</v>
       </c>
       <c r="P2">
-        <v>45.00000000014268</v>
+        <v>-10.05101633965328</v>
       </c>
       <c r="Q2">
-        <v>45.00000000014401</v>
+        <v>-9.529673900180338</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -14666,10 +14666,10 @@
         <v>0.8020156209364412</v>
       </c>
       <c r="P3">
-        <v>45.00000000014474</v>
+        <v>-9.226445685756126</v>
       </c>
       <c r="Q3">
-        <v>45.00000000014401</v>
+        <v>-9.529673900180338</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -14719,10 +14719,10 @@
         <v>0.8020156209364412</v>
       </c>
       <c r="P4">
-        <v>45.00000000014474</v>
+        <v>-9.226445685756126</v>
       </c>
       <c r="Q4">
-        <v>45.00000000014401</v>
+        <v>-9.529673900180338</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -14772,10 +14772,10 @@
         <v>0.7610792363879809</v>
       </c>
       <c r="P5">
-        <v>45.00000000014474</v>
+        <v>-9.226445685756126</v>
       </c>
       <c r="Q5">
-        <v>45.00000000014474</v>
+        <v>-9.226445685756126</v>
       </c>
     </row>
   </sheetData>
@@ -15035,22 +15035,22 @@
         <v>0.8530446727841295</v>
       </c>
       <c r="AL2">
-        <v>73.95517106948729</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999599</v>
+        <v>-106.0448289300387</v>
       </c>
       <c r="AN2">
-        <v>106.028510192134</v>
+        <v>106.0285101917882</v>
       </c>
       <c r="AO2">
-        <v>31.54263638696132</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999629</v>
+        <v>-148.457363612915</v>
       </c>
       <c r="AQ2">
-        <v>124.0142189298934</v>
+        <v>124.0142189298519</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -15166,22 +15166,22 @@
         <v>0.8530446727841295</v>
       </c>
       <c r="AL3">
-        <v>30.3746914538796</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999616</v>
+        <v>-149.6253085460567</v>
       </c>
       <c r="AN3">
-        <v>129.279728539824</v>
+        <v>129.2797285398058</v>
       </c>
       <c r="AO3">
-        <v>31.54263638696132</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999629</v>
+        <v>-148.457363612915</v>
       </c>
       <c r="AQ3">
-        <v>124.0142189298934</v>
+        <v>124.0142189298519</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -15297,22 +15297,22 @@
         <v>0.8530446727841295</v>
       </c>
       <c r="AL4">
-        <v>30.37469145387961</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999615</v>
+        <v>-149.6253085460566</v>
       </c>
       <c r="AN4">
-        <v>129.279728539824</v>
+        <v>129.2797285398058</v>
       </c>
       <c r="AO4">
-        <v>31.54263638696132</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999629</v>
+        <v>-148.457363612915</v>
       </c>
       <c r="AQ4">
-        <v>124.0142189298934</v>
+        <v>124.0142189298519</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -15428,22 +15428,22 @@
         <v>0.8732631958338906</v>
       </c>
       <c r="AL5">
-        <v>30.3746914538796</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>-89.99999999999616</v>
+        <v>-149.6253085460567</v>
       </c>
       <c r="AN5">
-        <v>129.279728539824</v>
+        <v>129.2797285398058</v>
       </c>
       <c r="AO5">
-        <v>30.37469145387961</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>-89.99999999999615</v>
+        <v>-149.6253085460566</v>
       </c>
       <c r="AQ5">
-        <v>129.279728539824</v>
+        <v>129.2797285398058</v>
       </c>
     </row>
   </sheetData>
@@ -15703,22 +15703,22 @@
         <v>0.918107640054168</v>
       </c>
       <c r="AL2">
-        <v>29.30792029102571</v>
+        <v>-8.693131365342582</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999645</v>
+        <v>-118.488919972468</v>
       </c>
       <c r="AN2">
-        <v>141.0918491689127</v>
+        <v>116.7875695576753</v>
       </c>
       <c r="AO2">
-        <v>30.79943024266928</v>
+        <v>1.254821614069597</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999632</v>
+        <v>-130.27493468581</v>
       </c>
       <c r="AQ2">
-        <v>141.4770536805405</v>
+        <v>121.5574577370627</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -15834,22 +15834,22 @@
         <v>0.918107640054168</v>
       </c>
       <c r="AL3">
-        <v>31.42153392358027</v>
+        <v>5.569548919114751</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999625</v>
+        <v>-134.869866733398</v>
       </c>
       <c r="AN3">
-        <v>141.5014391686906</v>
+        <v>124.045921211268</v>
       </c>
       <c r="AO3">
-        <v>30.79943024266928</v>
+        <v>1.254821614069597</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999632</v>
+        <v>-130.27493468581</v>
       </c>
       <c r="AQ3">
-        <v>141.4770536805405</v>
+        <v>121.5574577370627</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -15965,22 +15965,22 @@
         <v>0.918107640054168</v>
       </c>
       <c r="AL4">
-        <v>31.42153392358027</v>
+        <v>5.569548919114744</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999625</v>
+        <v>-134.869866733398</v>
       </c>
       <c r="AN4">
-        <v>141.5014391686906</v>
+        <v>124.045921211268</v>
       </c>
       <c r="AO4">
-        <v>30.79943024266928</v>
+        <v>1.254821614069597</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999632</v>
+        <v>-130.27493468581</v>
       </c>
       <c r="AQ4">
-        <v>141.4770536805405</v>
+        <v>121.5574577370627</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -16096,22 +16096,22 @@
         <v>0.9085834169431386</v>
       </c>
       <c r="AL5">
-        <v>31.42153392358027</v>
+        <v>5.569548919114751</v>
       </c>
       <c r="AM5">
-        <v>-89.99999999999625</v>
+        <v>-134.869866733398</v>
       </c>
       <c r="AN5">
-        <v>141.5014391686906</v>
+        <v>124.045921211268</v>
       </c>
       <c r="AO5">
-        <v>31.42153392358027</v>
+        <v>5.569548919114744</v>
       </c>
       <c r="AP5">
-        <v>-89.99999999999625</v>
+        <v>-134.869866733398</v>
       </c>
       <c r="AQ5">
-        <v>141.5014391686906</v>
+        <v>124.045921211268</v>
       </c>
     </row>
   </sheetData>
@@ -16371,22 +16371,22 @@
         <v>0.918107640054168</v>
       </c>
       <c r="AL2">
-        <v>29.30792029102571</v>
+        <v>-8.693131365342582</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999645</v>
+        <v>-118.488919972468</v>
       </c>
       <c r="AN2">
-        <v>141.0918491689127</v>
+        <v>116.7875695576753</v>
       </c>
       <c r="AO2">
-        <v>30.79943024266928</v>
+        <v>1.254821614069597</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999632</v>
+        <v>-130.27493468581</v>
       </c>
       <c r="AQ2">
-        <v>141.4770536805405</v>
+        <v>121.5574577370627</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -16502,22 +16502,22 @@
         <v>0.918107640054168</v>
       </c>
       <c r="AL3">
-        <v>31.42153392358027</v>
+        <v>5.569548919114751</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999625</v>
+        <v>-134.869866733398</v>
       </c>
       <c r="AN3">
-        <v>141.5014391686906</v>
+        <v>124.045921211268</v>
       </c>
       <c r="AO3">
-        <v>30.79943024266928</v>
+        <v>1.254821614069597</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999632</v>
+        <v>-130.27493468581</v>
       </c>
       <c r="AQ3">
-        <v>141.4770536805405</v>
+        <v>121.5574577370627</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -16633,22 +16633,22 @@
         <v>0.918107640054168</v>
       </c>
       <c r="AL4">
-        <v>31.42153392358027</v>
+        <v>5.569548919114744</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999625</v>
+        <v>-134.869866733398</v>
       </c>
       <c r="AN4">
-        <v>141.5014391686906</v>
+        <v>124.045921211268</v>
       </c>
       <c r="AO4">
-        <v>30.79943024266928</v>
+        <v>1.254821614069597</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999632</v>
+        <v>-130.27493468581</v>
       </c>
       <c r="AQ4">
-        <v>141.4770536805405</v>
+        <v>121.5574577370627</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -16764,22 +16764,22 @@
         <v>0.9085834169431386</v>
       </c>
       <c r="AL5">
-        <v>31.42153392358027</v>
+        <v>5.569548919114751</v>
       </c>
       <c r="AM5">
-        <v>-89.99999999999625</v>
+        <v>-134.869866733398</v>
       </c>
       <c r="AN5">
-        <v>141.5014391686906</v>
+        <v>124.045921211268</v>
       </c>
       <c r="AO5">
-        <v>31.42153392358027</v>
+        <v>5.569548919114744</v>
       </c>
       <c r="AP5">
-        <v>-89.99999999999625</v>
+        <v>-134.869866733398</v>
       </c>
       <c r="AQ5">
-        <v>141.5014391686906</v>
+        <v>124.045921211268</v>
       </c>
     </row>
   </sheetData>
@@ -16895,10 +16895,10 @@
         <v>0.8020156209364412</v>
       </c>
       <c r="P2">
-        <v>45.00000000014268</v>
+        <v>-10.05101633965328</v>
       </c>
       <c r="Q2">
-        <v>45.00000000014401</v>
+        <v>-9.529673900180338</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -16948,10 +16948,10 @@
         <v>0.8020156209364412</v>
       </c>
       <c r="P3">
-        <v>45.00000000014474</v>
+        <v>-9.226445685756126</v>
       </c>
       <c r="Q3">
-        <v>45.00000000014401</v>
+        <v>-9.529673900180338</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -17001,10 +17001,10 @@
         <v>0.8020156209364412</v>
       </c>
       <c r="P4">
-        <v>45.00000000014474</v>
+        <v>-9.226445685756126</v>
       </c>
       <c r="Q4">
-        <v>45.00000000014401</v>
+        <v>-9.529673900180338</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -17054,10 +17054,10 @@
         <v>0.7610792363879809</v>
       </c>
       <c r="P5">
-        <v>45.00000000014474</v>
+        <v>-9.226445685756126</v>
       </c>
       <c r="Q5">
-        <v>45.00000000014474</v>
+        <v>-9.226445685756126</v>
       </c>
     </row>
   </sheetData>
@@ -17173,10 +17173,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>87.26693929749283</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>69.67231643316981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -17226,10 +17226,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>62.37332949917577</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>69.67231643316981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -17279,10 +17279,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>62.37332949917577</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>69.67231643316981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -17332,10 +17332,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>62.37332949917577</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>62.37332949917577</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17451,10 +17451,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>87.26693929749281</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>69.67231643316977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -17504,10 +17504,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>62.37332949917577</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>69.67231643316977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -17557,10 +17557,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>62.37332949917577</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>69.67231643316977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -17610,10 +17610,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>62.37332949917577</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>62.37332949917577</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17729,10 +17729,10 @@
         <v>0.701930307789607</v>
       </c>
       <c r="P2">
-        <v>44.99999999986316</v>
+        <v>-10.4045966787725</v>
       </c>
       <c r="Q2">
-        <v>44.99999999986814</v>
+        <v>-7.634345070499246</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -17782,10 +17782,10 @@
         <v>0.701930307789607</v>
       </c>
       <c r="P3">
-        <v>44.99999999987112</v>
+        <v>-6.093293456603758</v>
       </c>
       <c r="Q3">
-        <v>44.99999999986814</v>
+        <v>-7.634345070499246</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -17835,10 +17835,10 @@
         <v>0.701930307789607</v>
       </c>
       <c r="P4">
-        <v>44.99999999987112</v>
+        <v>-6.093293456603762</v>
       </c>
       <c r="Q4">
-        <v>44.99999999986814</v>
+        <v>-7.634345070499246</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -17888,10 +17888,10 @@
         <v>0.6550793552671756</v>
       </c>
       <c r="P5">
-        <v>44.99999999987112</v>
+        <v>-6.093293456603758</v>
       </c>
       <c r="Q5">
-        <v>44.99999999987112</v>
+        <v>-6.093293456603762</v>
       </c>
     </row>
   </sheetData>
@@ -18007,10 +18007,10 @@
         <v>0.701930307789607</v>
       </c>
       <c r="P2">
-        <v>44.99999999986316</v>
+        <v>-10.4045966787725</v>
       </c>
       <c r="Q2">
-        <v>44.99999999986814</v>
+        <v>-7.634345070499246</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -18060,10 +18060,10 @@
         <v>0.701930307789607</v>
       </c>
       <c r="P3">
-        <v>44.99999999987112</v>
+        <v>-6.093293456603758</v>
       </c>
       <c r="Q3">
-        <v>44.99999999986814</v>
+        <v>-7.634345070499246</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -18113,10 +18113,10 @@
         <v>0.701930307789607</v>
       </c>
       <c r="P4">
-        <v>44.99999999987112</v>
+        <v>-6.093293456603762</v>
       </c>
       <c r="Q4">
-        <v>44.99999999986814</v>
+        <v>-7.634345070499246</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -18166,10 +18166,10 @@
         <v>0.6550793552671756</v>
       </c>
       <c r="P5">
-        <v>44.99999999987112</v>
+        <v>-6.093293456603758</v>
       </c>
       <c r="Q5">
-        <v>44.99999999987112</v>
+        <v>-6.093293456603762</v>
       </c>
     </row>
   </sheetData>
@@ -18429,22 +18429,22 @@
         <v>0.952627964804756</v>
       </c>
       <c r="AL2">
-        <v>-3.981164704985178E-12</v>
+        <v>7.363317617288727E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>179.9999999999793</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999999899</v>
+        <v>-179.9999999999858</v>
       </c>
       <c r="AO2">
-        <v>-1.243683065455747E-11</v>
+        <v>5.900008373821368E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>179.9999999999542</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999592</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -18560,22 +18560,22 @@
         <v>0.952627964804756</v>
       </c>
       <c r="AL3">
-        <v>-1.426240347863938E-11</v>
+        <v>5.117418226480556E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>179.9999999999489</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999999792</v>
+        <v>-179.9999999999532</v>
       </c>
       <c r="AO3">
-        <v>-1.243683065455747E-11</v>
+        <v>5.900008373821368E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>179.9999999999542</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999592</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -18691,22 +18691,22 @@
         <v>0.952627964804756</v>
       </c>
       <c r="AL4">
-        <v>-1.425857964979136E-11</v>
+        <v>5.001290862152971E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>179.9999999999489</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999999792</v>
+        <v>-179.9999999999532</v>
       </c>
       <c r="AO4">
-        <v>-1.243683065455747E-11</v>
+        <v>5.900008373821368E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>179.9999999999542</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999592</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -18822,22 +18822,22 @@
         <v>0.9526279648057686</v>
       </c>
       <c r="AL5">
-        <v>-1.426240347863938E-11</v>
+        <v>5.117418226480556E-13</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>179.9999999999489</v>
       </c>
       <c r="AN5">
-        <v>-179.9999999999792</v>
+        <v>-179.9999999999532</v>
       </c>
       <c r="AO5">
-        <v>-1.425857964979136E-11</v>
+        <v>5.001290862152971E-13</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>179.9999999999489</v>
       </c>
       <c r="AQ5">
-        <v>-179.9999999999792</v>
+        <v>-179.9999999999532</v>
       </c>
     </row>
   </sheetData>
